--- a/01_doc/planning_graphique.xlsx
+++ b/01_doc/planning_graphique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naily\Documents\01_HEIG\01_TB\01_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC710467-605D-44C0-9B62-C500D7F5B4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA90865-5075-4F4A-B7D4-18BDE37C994A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22236" windowHeight="13176" xr2:uid="{0E25EB2B-89C1-426C-A11E-6857A062B946}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Développement</t>
   </si>
@@ -139,7 +139,386 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-CH"/>
-              <a:t>Répartition du temps</a:t>
+              <a:t>Planification du temps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-703E-46B9-B035-552815C97E56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-703E-46B9-B035-552815C97E56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-703E-46B9-B035-552815C97E56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-703E-46B9-B035-552815C97E56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-703E-46B9-B035-552815C97E56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CH"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Analyse et conception</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Traitement données </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Développement</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Déploiement</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Documentation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA23-4F84-AA22-C0630A0F4ACE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Usage du temps</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -286,6 +665,7 @@
                 <a:endParaRPr lang="en-CH"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -313,7 +693,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$1:$E$1</c:f>
+              <c:f>Sheet1!$G$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -336,31 +716,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$E$7</c:f>
+              <c:f>Sheet1!$G$19:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>49</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94</c:v>
+                  <c:v>110.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>144</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>79.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AA23-4F84-AA22-C0630A0F4ACE}"/>
+              <c16:uniqueId val="{00000000-E547-49EF-B006-82A8D2C23F04}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -369,7 +749,7 @@
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -498,7 +878,566 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1022,15 +1961,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>377190</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>6217</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>208147</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>25065</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1050,6 +1989,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>296779</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>24063</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC246313-B92A-BE89-8407-450F70DDF64C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1355,10 +2330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E297C8A-17C2-4E0C-8A88-B93C37CD2B12}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="152" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1368,9 +2343,14 @@
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1386,8 +2366,23 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>16</v>
       </c>
@@ -1395,7 +2390,7 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>30</v>
@@ -1403,22 +2398,49 @@
       <c r="E2">
         <v>20</v>
       </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>6.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>25</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
@@ -1426,37 +2448,67 @@
         <v>54</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>40</v>
       </c>
+      <c r="G4">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>57</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>5</v>
+      </c>
       <c r="C5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C6">
-        <v>70</v>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>SUM(A2:A6)</f>
         <v>49</v>
       </c>
       <c r="B7">
         <f>SUM(B2:B6)</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7">
         <f>SUM(C2:C6)</f>
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D7">
         <f>SUM(D2:D6)</f>
@@ -1465,6 +2517,93 @@
       <c r="E7">
         <f>SUM(E2:E6)</f>
         <v>75</v>
+      </c>
+      <c r="F7">
+        <f>SUM(A7:E7)</f>
+        <v>386</v>
+      </c>
+      <c r="H7">
+        <v>6.5</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <f>SUM(G2:G18)</f>
+        <v>48</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:K19" si="0">SUM(H2:H18)</f>
+        <v>110.5</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>79.5</v>
+      </c>
+      <c r="L19">
+        <f>SUM(G19:K19)</f>
+        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/01_doc/planning_graphique.xlsx
+++ b/01_doc/planning_graphique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naily\Documents\01_HEIG\01_TB\01_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA90865-5075-4F4A-B7D4-18BDE37C994A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1D2693-F0D2-4708-A9EE-74C6539D431F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22236" windowHeight="13176" xr2:uid="{0E25EB2B-89C1-426C-A11E-6857A062B946}"/>
   </bookViews>
@@ -574,6 +574,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3D5F-4A3E-B141-1729C0EE58BA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -589,6 +594,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3D5F-4A3E-B141-1729C0EE58BA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -604,6 +614,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3D5F-4A3E-B141-1729C0EE58BA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -619,6 +634,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3D5F-4A3E-B141-1729C0EE58BA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -634,6 +654,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3D5F-4A3E-B141-1729C0EE58BA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -733,7 +758,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.5</c:v>
+                  <c:v>82.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2332,8 +2357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E297C8A-17C2-4E0C-8A88-B93C37CD2B12}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="152" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="79" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2463,7 +2488,7 @@
         <v>6</v>
       </c>
       <c r="K4">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2599,11 +2624,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>79.5</v>
+        <v>82.5</v>
       </c>
       <c r="L19">
         <f>SUM(G19:K19)</f>
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
